--- a/data/microdegree_info.xlsx
+++ b/data/microdegree_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1878EC8-FA36-41BF-A398-E1B825A85D69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF8AC3B-3DD9-4AEF-A7BC-D3FE13A5829B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1428,9 +1428,6 @@
   </si>
   <si>
     <t>그로스마케터 과정 MD</t>
-  </si>
-  <si>
-    <t>재무빅데이터분석 전문가 MD</t>
   </si>
   <si>
     <t>푸드콘텐츠기획자 MD</t>
@@ -5219,15 +5216,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소단위전공과정, 마이크로디그리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과정명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과정설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로디그리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무빅데이터분석 전문가 MD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5618,7 +5619,7 @@
   <dimension ref="A1:H6087"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5635,22 +5636,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
@@ -5661,7 +5662,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>90</v>
@@ -5670,13 +5671,13 @@
         <v>89</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>19</v>
@@ -5687,22 +5688,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>21</v>
@@ -5716,19 +5717,19 @@
         <v>94</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>22</v>
@@ -5742,19 +5743,19 @@
         <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>22</v>
@@ -5768,19 +5769,19 @@
         <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>23</v>
@@ -5794,19 +5795,19 @@
         <v>97</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>24</v>
@@ -5820,19 +5821,19 @@
         <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>25</v>
@@ -5846,19 +5847,19 @@
         <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>26</v>
@@ -5872,16 +5873,16 @@
         <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
@@ -5898,16 +5899,16 @@
         <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>2</v>
@@ -5924,16 +5925,16 @@
         <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>6</v>
@@ -5950,16 +5951,16 @@
         <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>7</v>
@@ -5976,16 +5977,16 @@
         <v>104</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>8</v>
@@ -6002,16 +6003,16 @@
         <v>105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>3</v>
@@ -6034,13 +6035,13 @@
         <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>17</v>
@@ -6060,13 +6061,13 @@
         <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>17</v>
@@ -6086,13 +6087,13 @@
         <v>78</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>17</v>
@@ -6112,13 +6113,13 @@
         <v>79</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>18</v>
@@ -6138,13 +6139,13 @@
         <v>86</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>16</v>
@@ -6155,7 +6156,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>87</v>
@@ -6164,13 +6165,13 @@
         <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>16</v>
@@ -6181,7 +6182,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>88</v>
@@ -6190,13 +6191,13 @@
         <v>93</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>19</v>
@@ -6207,7 +6208,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>91</v>
@@ -6216,13 +6217,13 @@
         <v>92</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>20</v>
@@ -6233,22 +6234,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>21</v>
@@ -6259,22 +6260,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>27</v>
@@ -6285,19 +6286,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>1</v>
@@ -6311,19 +6312,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>1</v>
@@ -6337,19 +6338,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>4</v>
@@ -6363,19 +6364,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>5</v>
@@ -6389,19 +6390,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>6</v>
@@ -6415,19 +6416,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>7</v>
@@ -6441,22 +6442,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>40</v>
@@ -6467,22 +6468,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>40</v>
@@ -6493,19 +6494,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="C34" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>10</v>
@@ -6519,19 +6520,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>12</v>
@@ -6545,19 +6546,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>9</v>
@@ -6571,19 +6572,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>9</v>
@@ -6597,19 +6598,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>11</v>
